--- a/data/pca/factorExposure/factorExposure_2010-07-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-16.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01607084441071058</v>
+        <v>-0.01671806942416674</v>
       </c>
       <c r="C2">
-        <v>-0.001667437182662324</v>
+        <v>0.0008180821592890755</v>
       </c>
       <c r="D2">
-        <v>0.009424906656914736</v>
+        <v>0.006957797103124347</v>
       </c>
       <c r="E2">
-        <v>-0.02970415476207072</v>
+        <v>-0.002564520384177918</v>
       </c>
       <c r="F2">
-        <v>-0.01682877145231942</v>
+        <v>0.01171270466176538</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1225137653422715</v>
+        <v>-0.09514970773964686</v>
       </c>
       <c r="C4">
-        <v>0.09024388171827352</v>
+        <v>0.01815170174619848</v>
       </c>
       <c r="D4">
-        <v>-0.003230451466289014</v>
+        <v>0.07714638903225793</v>
       </c>
       <c r="E4">
-        <v>0.01693695640197813</v>
+        <v>0.02754459545229572</v>
       </c>
       <c r="F4">
-        <v>-0.1569812373366466</v>
+        <v>-0.04188268717093381</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1288573012429364</v>
+        <v>-0.1508716952667589</v>
       </c>
       <c r="C6">
-        <v>0.06552607884001055</v>
+        <v>0.02436839143624857</v>
       </c>
       <c r="D6">
-        <v>-0.01763510741157531</v>
+        <v>-0.0171486180735595</v>
       </c>
       <c r="E6">
-        <v>0.03117468102625917</v>
+        <v>0.01163058680981229</v>
       </c>
       <c r="F6">
-        <v>-0.0488885461818696</v>
+        <v>-0.03895658567435983</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07108248141100988</v>
+        <v>-0.06339075665449996</v>
       </c>
       <c r="C7">
-        <v>0.08515095242999998</v>
+        <v>0.0008294563041177283</v>
       </c>
       <c r="D7">
-        <v>0.005114906411676987</v>
+        <v>0.04956976804810383</v>
       </c>
       <c r="E7">
-        <v>0.00575040673336817</v>
+        <v>0.01362266089992252</v>
       </c>
       <c r="F7">
-        <v>-0.01490784414353496</v>
+        <v>-0.05729618730920907</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03911124723053564</v>
+        <v>-0.0598627262168767</v>
       </c>
       <c r="C8">
-        <v>0.01015528137603793</v>
+        <v>-0.01283041571388911</v>
       </c>
       <c r="D8">
-        <v>0.01033650270642843</v>
+        <v>0.02759285638439228</v>
       </c>
       <c r="E8">
-        <v>-0.03080780759831989</v>
+        <v>0.01018371510282112</v>
       </c>
       <c r="F8">
-        <v>-0.1164049931696778</v>
+        <v>0.02165323612885015</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08910274163642799</v>
+        <v>-0.07337502716146663</v>
       </c>
       <c r="C9">
-        <v>0.06218756797574138</v>
+        <v>0.01508489366294318</v>
       </c>
       <c r="D9">
-        <v>-0.01386449160628836</v>
+        <v>0.07404078309736464</v>
       </c>
       <c r="E9">
-        <v>0.01976652031134589</v>
+        <v>0.02068203446541976</v>
       </c>
       <c r="F9">
-        <v>-0.1310279920566487</v>
+        <v>-0.06239324477344153</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1248794421951264</v>
+        <v>-0.09094018998206416</v>
       </c>
       <c r="C10">
-        <v>-0.1839965064626606</v>
+        <v>0.01268596373748059</v>
       </c>
       <c r="D10">
-        <v>0.0188297589397918</v>
+        <v>-0.1731845779741395</v>
       </c>
       <c r="E10">
-        <v>0.009141706640116959</v>
+        <v>-0.0337779774107879</v>
       </c>
       <c r="F10">
-        <v>0.05619899709121807</v>
+        <v>0.05059322790971293</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06667639590399804</v>
+        <v>-0.08886580145431701</v>
       </c>
       <c r="C11">
-        <v>0.0565003820877744</v>
+        <v>0.01423895759107643</v>
       </c>
       <c r="D11">
-        <v>-0.04569894797672278</v>
+        <v>0.1047918419115347</v>
       </c>
       <c r="E11">
-        <v>0.0185010363818956</v>
+        <v>0.03997490237552204</v>
       </c>
       <c r="F11">
-        <v>-0.1011816124535939</v>
+        <v>-0.02894724025375933</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0763036460437088</v>
+        <v>-0.09446148372518208</v>
       </c>
       <c r="C12">
-        <v>0.06723509968395017</v>
+        <v>0.0119665818176163</v>
       </c>
       <c r="D12">
-        <v>-0.05843314477818553</v>
+        <v>0.1085415734134783</v>
       </c>
       <c r="E12">
-        <v>0.06235733259658263</v>
+        <v>0.03808659181395402</v>
       </c>
       <c r="F12">
-        <v>-0.1190568274042917</v>
+        <v>-0.03255452529506132</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04215161583354721</v>
+        <v>-0.04400350387307056</v>
       </c>
       <c r="C13">
-        <v>0.04043950617264336</v>
+        <v>0.004525603939488199</v>
       </c>
       <c r="D13">
-        <v>0.02415428500589788</v>
+        <v>0.03613493511961068</v>
       </c>
       <c r="E13">
-        <v>0.01763549634033203</v>
+        <v>-0.0142968155041578</v>
       </c>
       <c r="F13">
-        <v>-0.06894481098092334</v>
+        <v>-0.02279852721017914</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04813901111404208</v>
+        <v>-0.02240319177425356</v>
       </c>
       <c r="C14">
-        <v>0.03002622939636679</v>
+        <v>0.01516111142716264</v>
       </c>
       <c r="D14">
-        <v>-0.005721220864814165</v>
+        <v>0.02657558832626466</v>
       </c>
       <c r="E14">
-        <v>0.01674040564181049</v>
+        <v>0.01542132600266136</v>
       </c>
       <c r="F14">
-        <v>-0.05735507413206172</v>
+        <v>-0.02669999708781805</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02718910237474828</v>
+        <v>-0.03271817002721186</v>
       </c>
       <c r="C15">
-        <v>0.01589593952806551</v>
+        <v>0.006298378187445962</v>
       </c>
       <c r="D15">
-        <v>0.07219554131662242</v>
+        <v>0.03677080916856398</v>
       </c>
       <c r="E15">
-        <v>-0.02817419265303166</v>
+        <v>0.006912308232011738</v>
       </c>
       <c r="F15">
-        <v>-0.02016695605667718</v>
+        <v>-0.03546324796804171</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.08001554628432361</v>
+        <v>-0.07626596917664639</v>
       </c>
       <c r="C16">
-        <v>0.07274394352998648</v>
+        <v>0.00600448551520162</v>
       </c>
       <c r="D16">
-        <v>-0.04343814928918043</v>
+        <v>0.1069144104677041</v>
       </c>
       <c r="E16">
-        <v>0.04388872064731119</v>
+        <v>0.05581400287672007</v>
       </c>
       <c r="F16">
-        <v>-0.09925987314184544</v>
+        <v>-0.03726980421097598</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01576305545695656</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004295524492682436</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02692038985900691</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-0.01104323359089982</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03085424114205632</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04508406689741201</v>
+        <v>-0.06189790595175451</v>
       </c>
       <c r="C20">
-        <v>0.02298766902517008</v>
+        <v>0.003536982224566562</v>
       </c>
       <c r="D20">
-        <v>0.03155977046053932</v>
+        <v>0.06325358686324382</v>
       </c>
       <c r="E20">
-        <v>0.03603971748858997</v>
+        <v>0.04927568114710048</v>
       </c>
       <c r="F20">
-        <v>-0.05676128555098005</v>
+        <v>-0.03378942597820563</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03229775678177595</v>
+        <v>-0.03791299448030081</v>
       </c>
       <c r="C21">
-        <v>0.02404627661296736</v>
+        <v>0.00826205733159719</v>
       </c>
       <c r="D21">
-        <v>-0.01012537718370698</v>
+        <v>0.03441742863254876</v>
       </c>
       <c r="E21">
-        <v>0.00776377542057374</v>
+        <v>-0.01274867142038065</v>
       </c>
       <c r="F21">
-        <v>-0.06217984774656912</v>
+        <v>0.0156822423924375</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05552635357413023</v>
+        <v>-0.04295441494311857</v>
       </c>
       <c r="C22">
-        <v>0.02556451362179891</v>
+        <v>0.0007531509598352523</v>
       </c>
       <c r="D22">
-        <v>0.6482780540879608</v>
+        <v>-0.001221855592261746</v>
       </c>
       <c r="E22">
-        <v>0.1270624374269174</v>
+        <v>0.03497248588926427</v>
       </c>
       <c r="F22">
-        <v>0.03558491231403368</v>
+        <v>0.02725688102344064</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05610616660650124</v>
+        <v>-0.04299188286143618</v>
       </c>
       <c r="C23">
-        <v>0.02674338374877754</v>
+        <v>0.0007761801847007685</v>
       </c>
       <c r="D23">
-        <v>0.6503442279467451</v>
+        <v>-0.001044119218335011</v>
       </c>
       <c r="E23">
-        <v>0.1286367857941183</v>
+        <v>0.03533687538562421</v>
       </c>
       <c r="F23">
-        <v>0.03035065316461559</v>
+        <v>0.02668351245862869</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07898559337391532</v>
+        <v>-0.08207290736445197</v>
       </c>
       <c r="C24">
-        <v>0.07027670648927864</v>
+        <v>0.005896549527549507</v>
       </c>
       <c r="D24">
-        <v>-0.03578356376772888</v>
+        <v>0.1094395386418782</v>
       </c>
       <c r="E24">
-        <v>0.04392554122954846</v>
+        <v>0.04353001128501749</v>
       </c>
       <c r="F24">
-        <v>-0.1009036454657202</v>
+        <v>-0.02924676903607233</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07751172206146587</v>
+        <v>-0.08678314554789635</v>
       </c>
       <c r="C25">
-        <v>0.05296679154281796</v>
+        <v>0.008242851869310482</v>
       </c>
       <c r="D25">
-        <v>-0.05678840433116474</v>
+        <v>0.09440517516083836</v>
       </c>
       <c r="E25">
-        <v>0.04103278236479185</v>
+        <v>0.02539858217838773</v>
       </c>
       <c r="F25">
-        <v>-0.1066850341340977</v>
+        <v>-0.03905242478203645</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04395566536188312</v>
+        <v>-0.05688662671274208</v>
       </c>
       <c r="C26">
-        <v>0.01948347211878944</v>
+        <v>0.01564718688591837</v>
       </c>
       <c r="D26">
-        <v>0.01005540479221503</v>
+        <v>0.02535220192111987</v>
       </c>
       <c r="E26">
-        <v>0.07992775610060483</v>
+        <v>0.02355600350684084</v>
       </c>
       <c r="F26">
-        <v>-0.06397566351623947</v>
+        <v>-0.003607227848787455</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1508407614236725</v>
+        <v>-0.1364696169735746</v>
       </c>
       <c r="C28">
-        <v>-0.2768909492927034</v>
+        <v>0.009965059687705918</v>
       </c>
       <c r="D28">
-        <v>-0.005142624254385262</v>
+        <v>-0.2785084838754533</v>
       </c>
       <c r="E28">
-        <v>0.01310150061891948</v>
+        <v>-0.0674111126049607</v>
       </c>
       <c r="F28">
-        <v>-0.02005938388144202</v>
+        <v>-0.04977975171881796</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.0428767441021225</v>
+        <v>-0.02765575050794947</v>
       </c>
       <c r="C29">
-        <v>0.02649223221137293</v>
+        <v>0.009433498985114136</v>
       </c>
       <c r="D29">
-        <v>-0.008842888934557168</v>
+        <v>0.02481745182015174</v>
       </c>
       <c r="E29">
-        <v>0.02068248385068912</v>
+        <v>0.008027800358583394</v>
       </c>
       <c r="F29">
-        <v>-0.05215689101800405</v>
+        <v>0.00630678746385469</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08816862702374725</v>
+        <v>-0.06649675603022763</v>
       </c>
       <c r="C30">
-        <v>0.05406548414864427</v>
+        <v>0.008564885051486028</v>
       </c>
       <c r="D30">
-        <v>-0.0191801306664469</v>
+        <v>0.07082824850268178</v>
       </c>
       <c r="E30">
-        <v>0.2054015330132805</v>
+        <v>0.01940267112546843</v>
       </c>
       <c r="F30">
-        <v>-0.2120643367879992</v>
+        <v>-0.1263811119094184</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.02875743926232152</v>
+        <v>-0.0485953609412687</v>
       </c>
       <c r="C31">
-        <v>0.05401557504492024</v>
+        <v>0.01524852865585412</v>
       </c>
       <c r="D31">
-        <v>0.003417584583184955</v>
+        <v>0.02905450502692856</v>
       </c>
       <c r="E31">
-        <v>0.005071471194608487</v>
+        <v>0.02600495068804413</v>
       </c>
       <c r="F31">
-        <v>-0.04051450715287753</v>
+        <v>0.002778846187325994</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.06032058901573191</v>
+        <v>-0.04866960956703772</v>
       </c>
       <c r="C32">
-        <v>0.003724906311704706</v>
+        <v>0.001274124784531403</v>
       </c>
       <c r="D32">
-        <v>-0.04068559776000457</v>
+        <v>0.0221346485836857</v>
       </c>
       <c r="E32">
-        <v>-0.06730215631159754</v>
+        <v>0.02351796612745563</v>
       </c>
       <c r="F32">
-        <v>-0.09878472947223622</v>
+        <v>-0.007010892563975585</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09312087994422212</v>
+        <v>-0.09226401773315859</v>
       </c>
       <c r="C33">
-        <v>0.06523570142221428</v>
+        <v>0.01135201960014781</v>
       </c>
       <c r="D33">
-        <v>-0.0209882474984671</v>
+        <v>0.0847577400976402</v>
       </c>
       <c r="E33">
-        <v>0.03676850826637116</v>
+        <v>0.04251085007376439</v>
       </c>
       <c r="F33">
-        <v>-0.06825399509884453</v>
+        <v>-0.04436705502791859</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.0682315248932867</v>
+        <v>-0.06927509416700478</v>
       </c>
       <c r="C34">
-        <v>0.05216456875547913</v>
+        <v>0.01366734757462485</v>
       </c>
       <c r="D34">
-        <v>-0.05107980523719789</v>
+        <v>0.08842767697229607</v>
       </c>
       <c r="E34">
-        <v>0.02706075211017332</v>
+        <v>0.02674029155477118</v>
       </c>
       <c r="F34">
-        <v>-0.08297683443963461</v>
+        <v>-0.05375547968282644</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02100869521045429</v>
+        <v>-0.0244392111575224</v>
       </c>
       <c r="C35">
-        <v>0.01958495784497675</v>
+        <v>0.002448757422567308</v>
       </c>
       <c r="D35">
-        <v>-0.003704023759319888</v>
+        <v>0.009271923526148227</v>
       </c>
       <c r="E35">
-        <v>0.01690879886530191</v>
+        <v>0.01195511046915254</v>
       </c>
       <c r="F35">
-        <v>-0.007885842463619333</v>
+        <v>-0.0130337031943233</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03102775463396485</v>
+        <v>-0.02654403880851431</v>
       </c>
       <c r="C36">
-        <v>0.02092664910187826</v>
+        <v>0.007232501489371841</v>
       </c>
       <c r="D36">
-        <v>0.01241093312367315</v>
+        <v>0.03827025849506576</v>
       </c>
       <c r="E36">
-        <v>0.04289240603793202</v>
+        <v>0.01616273903802724</v>
       </c>
       <c r="F36">
-        <v>-0.07294995877440505</v>
+        <v>-0.01357820314369228</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02647636558713437</v>
+        <v>-0.003178524162658993</v>
       </c>
       <c r="C38">
-        <v>0.05403253290827014</v>
+        <v>0.0006071630537990786</v>
       </c>
       <c r="D38">
-        <v>0.02230577169734144</v>
+        <v>0.003734021456684875</v>
       </c>
       <c r="E38">
-        <v>0.03546618563705804</v>
+        <v>0.004495469660353806</v>
       </c>
       <c r="F38">
-        <v>0.1210666809421106</v>
+        <v>0.003848023273016329</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09639109681709332</v>
+        <v>-0.1124876632969121</v>
       </c>
       <c r="C39">
-        <v>0.0770496762045124</v>
+        <v>0.02009872520585657</v>
       </c>
       <c r="D39">
-        <v>-0.1243812784734428</v>
+        <v>0.141309337504556</v>
       </c>
       <c r="E39">
-        <v>0.1520443287659159</v>
+        <v>0.04820435461551834</v>
       </c>
       <c r="F39">
-        <v>-0.101768788788391</v>
+        <v>-0.04273261517975199</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02969439108082103</v>
+        <v>-0.0375773555088102</v>
       </c>
       <c r="C40">
-        <v>0.06261019728764743</v>
+        <v>0.007938879404264843</v>
       </c>
       <c r="D40">
-        <v>0.02477364540994722</v>
+        <v>0.02419092818317916</v>
       </c>
       <c r="E40">
-        <v>-0.04489399111311233</v>
+        <v>0.001868614509135458</v>
       </c>
       <c r="F40">
-        <v>-0.09768022458650559</v>
+        <v>0.01447817473604722</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03128842065495995</v>
+        <v>-0.02656920897300573</v>
       </c>
       <c r="C41">
-        <v>0.0245282385232943</v>
+        <v>0.006782072512224499</v>
       </c>
       <c r="D41">
-        <v>-0.02509504205877915</v>
+        <v>0.0113097339702745</v>
       </c>
       <c r="E41">
-        <v>0.02166218478954823</v>
+        <v>0.0105193921074491</v>
       </c>
       <c r="F41">
-        <v>0.007060588233701428</v>
+        <v>0.01221362989356948</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04744288215618918</v>
+        <v>-0.04339826203185656</v>
       </c>
       <c r="C43">
-        <v>0.04911848289947687</v>
+        <v>0.007331687760568335</v>
       </c>
       <c r="D43">
-        <v>0.009093771089338773</v>
+        <v>0.02094011793197628</v>
       </c>
       <c r="E43">
-        <v>0.05839457796862029</v>
+        <v>0.02527447174595481</v>
       </c>
       <c r="F43">
-        <v>-0.007486245001958958</v>
+        <v>0.01112242572100774</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09427263712711553</v>
+        <v>-0.07402241574481805</v>
       </c>
       <c r="C44">
-        <v>0.0773317348592984</v>
+        <v>0.02447319363360754</v>
       </c>
       <c r="D44">
-        <v>0.06250283092399168</v>
+        <v>0.09246765297753176</v>
       </c>
       <c r="E44">
-        <v>0.001358355553506229</v>
+        <v>0.06236743354194513</v>
       </c>
       <c r="F44">
-        <v>-0.153879591634227</v>
+        <v>-0.1858525921841852</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04171053848082881</v>
+        <v>-0.02437172958661316</v>
       </c>
       <c r="C46">
-        <v>0.0390068366127728</v>
+        <v>0.004134242165791678</v>
       </c>
       <c r="D46">
-        <v>0.05170493781695425</v>
+        <v>0.008118631911465347</v>
       </c>
       <c r="E46">
-        <v>-0.005626545672822842</v>
+        <v>0.02311589476494957</v>
       </c>
       <c r="F46">
-        <v>-0.03248685034774947</v>
+        <v>0.004077028108162385</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05315711767684179</v>
+        <v>-0.05325603689835104</v>
       </c>
       <c r="C47">
-        <v>0.04258403588131054</v>
+        <v>0.003391759640904746</v>
       </c>
       <c r="D47">
-        <v>0.003087461578232931</v>
+        <v>0.01408851486486118</v>
       </c>
       <c r="E47">
-        <v>0.02589869441192155</v>
+        <v>0.02262539018993831</v>
       </c>
       <c r="F47">
-        <v>-0.007390633076506754</v>
+        <v>0.04831276610287537</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04838467137577927</v>
+        <v>-0.04807192275567321</v>
       </c>
       <c r="C48">
-        <v>0.01565565497385893</v>
+        <v>0.003408067414099173</v>
       </c>
       <c r="D48">
-        <v>-0.01158217833343747</v>
+        <v>0.0417028934077289</v>
       </c>
       <c r="E48">
-        <v>0.004072276298949027</v>
+        <v>-0.008775115383312038</v>
       </c>
       <c r="F48">
-        <v>-0.08604688598116136</v>
+        <v>-0.01954870458512177</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2350518624898047</v>
+        <v>-0.2078099254434137</v>
       </c>
       <c r="C49">
-        <v>0.05959098583937516</v>
+        <v>0.0170320287016205</v>
       </c>
       <c r="D49">
-        <v>-0.03312174114494969</v>
+        <v>-0.006519535984263497</v>
       </c>
       <c r="E49">
-        <v>-0.1090590019958106</v>
+        <v>0.04250442778686305</v>
       </c>
       <c r="F49">
-        <v>0.3021927433438111</v>
+        <v>-0.03234391514299117</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03744558723932778</v>
+        <v>-0.04865039666545897</v>
       </c>
       <c r="C50">
-        <v>0.04504349125525202</v>
+        <v>0.01152798620364957</v>
       </c>
       <c r="D50">
-        <v>-0.01269132651110496</v>
+        <v>0.02829465147884704</v>
       </c>
       <c r="E50">
-        <v>0.04260129439674946</v>
+        <v>0.02814874372270691</v>
       </c>
       <c r="F50">
-        <v>-0.04677157238531574</v>
+        <v>-0.005625849812947266</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03314946985793028</v>
+        <v>-0.003711219279723229</v>
       </c>
       <c r="C51">
-        <v>0.003309485127721942</v>
+        <v>0.0008520797316437964</v>
       </c>
       <c r="D51">
-        <v>-0.00107138853770329</v>
+        <v>-0.001499107014828883</v>
       </c>
       <c r="E51">
-        <v>-0.02954754003372042</v>
+        <v>0.001763881391227929</v>
       </c>
       <c r="F51">
-        <v>0.05561405285014327</v>
+        <v>-0.003867886345442068</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.01459947849473603</v>
+        <v>-0.1403177173656147</v>
       </c>
       <c r="C52">
-        <v>0.005956850032687799</v>
+        <v>0.01243797700589872</v>
       </c>
       <c r="D52">
-        <v>-0.02376875057739373</v>
+        <v>0.05319411105061154</v>
       </c>
       <c r="E52">
-        <v>0.002646691573639903</v>
+        <v>0.0150161396783529</v>
       </c>
       <c r="F52">
-        <v>-0.006893314829230598</v>
+        <v>-0.02737352554608813</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1459914979798793</v>
+        <v>-0.1723789460504506</v>
       </c>
       <c r="C53">
-        <v>0.05670465092547926</v>
+        <v>0.01518684078630322</v>
       </c>
       <c r="D53">
-        <v>0.01001453932737767</v>
+        <v>0.02123151834315683</v>
       </c>
       <c r="E53">
-        <v>0.03170020883527726</v>
+        <v>0.03902881484899882</v>
       </c>
       <c r="F53">
-        <v>0.1085174453738512</v>
+        <v>-0.05432136502818626</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.06113036058833696</v>
+        <v>-0.02238413002170682</v>
       </c>
       <c r="C54">
-        <v>0.03312199979468056</v>
+        <v>0.01313360621393047</v>
       </c>
       <c r="D54">
-        <v>0.009213151031177216</v>
+        <v>0.02792778320608032</v>
       </c>
       <c r="E54">
-        <v>0.01633689098924056</v>
+        <v>0.01552580142410303</v>
       </c>
       <c r="F54">
-        <v>-0.1498750793898198</v>
+        <v>-0.001924738765325716</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08190764135937825</v>
+        <v>-0.1138866477005984</v>
       </c>
       <c r="C55">
-        <v>0.04850922201585078</v>
+        <v>0.01437088008313578</v>
       </c>
       <c r="D55">
-        <v>-0.03258112121802099</v>
+        <v>0.018909063895998</v>
       </c>
       <c r="E55">
-        <v>0.01008293375035398</v>
+        <v>0.02992477455998297</v>
       </c>
       <c r="F55">
-        <v>0.02167685204061838</v>
+        <v>-0.04617520604356644</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1358085050538924</v>
+        <v>-0.1768739358374025</v>
       </c>
       <c r="C56">
-        <v>0.09155156629113145</v>
+        <v>0.01245953999419956</v>
       </c>
       <c r="D56">
-        <v>-0.01835541354484979</v>
+        <v>0.02040621503903365</v>
       </c>
       <c r="E56">
-        <v>0.03647639029379179</v>
+        <v>0.0430075797674106</v>
       </c>
       <c r="F56">
-        <v>0.05070494419958248</v>
+        <v>-0.02291830611433561</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03335846714984841</v>
+        <v>-0.04703141919897447</v>
       </c>
       <c r="C58">
-        <v>0.02691139604013282</v>
+        <v>0.004003421009822148</v>
       </c>
       <c r="D58">
-        <v>0.03490737583645166</v>
+        <v>0.05820936069918561</v>
       </c>
       <c r="E58">
-        <v>0.02646170971076402</v>
+        <v>0.0131189977076624</v>
       </c>
       <c r="F58">
-        <v>-0.02017125701019459</v>
+        <v>0.04306351904234462</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2124810014872747</v>
+        <v>-0.1703146016147832</v>
       </c>
       <c r="C59">
-        <v>-0.2427806261253916</v>
+        <v>0.01180022344472593</v>
       </c>
       <c r="D59">
-        <v>-0.04528242441956252</v>
+        <v>-0.2351118029355077</v>
       </c>
       <c r="E59">
-        <v>-0.04373284335577422</v>
+        <v>-0.04634583638398838</v>
       </c>
       <c r="F59">
-        <v>0.00305903213511735</v>
+        <v>0.0285428104576646</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2352096432731612</v>
+        <v>-0.2403513493588888</v>
       </c>
       <c r="C60">
-        <v>0.1358186848432536</v>
+        <v>-0.004447000152595421</v>
       </c>
       <c r="D60">
-        <v>-0.07378950331679826</v>
+        <v>0.05734310154156608</v>
       </c>
       <c r="E60">
-        <v>-0.05344670254246988</v>
+        <v>0.01275375233491574</v>
       </c>
       <c r="F60">
-        <v>0.1321543391204026</v>
+        <v>0.04845243490889412</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09507671517879293</v>
+        <v>-0.08645948115129762</v>
       </c>
       <c r="C61">
-        <v>0.06689380296788967</v>
+        <v>0.0153081854290761</v>
       </c>
       <c r="D61">
-        <v>-0.07300616892986019</v>
+        <v>0.1022400090199045</v>
       </c>
       <c r="E61">
-        <v>0.09411883892740315</v>
+        <v>0.03359667027270075</v>
       </c>
       <c r="F61">
-        <v>-0.1157930636147426</v>
+        <v>-0.02785232477719814</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1353811291203237</v>
+        <v>-0.1685499180645018</v>
       </c>
       <c r="C62">
-        <v>0.07939537657288548</v>
+        <v>0.01640114058184912</v>
       </c>
       <c r="D62">
-        <v>-0.01081431768492618</v>
+        <v>0.01957515773827744</v>
       </c>
       <c r="E62">
-        <v>0.02748411824602498</v>
+        <v>0.03873261866384183</v>
       </c>
       <c r="F62">
-        <v>0.05863242078059534</v>
+        <v>-0.01035742599410929</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04395274241412918</v>
+        <v>-0.04297169385718577</v>
       </c>
       <c r="C63">
-        <v>0.01740071256984551</v>
+        <v>0.004607172018720613</v>
       </c>
       <c r="D63">
-        <v>-0.009419620659979233</v>
+        <v>0.04377149308116951</v>
       </c>
       <c r="E63">
-        <v>0.04864940814734338</v>
+        <v>0.01326254889295468</v>
       </c>
       <c r="F63">
-        <v>-0.05467079181391085</v>
+        <v>-0.01354053995820416</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09881364915810628</v>
+        <v>-0.1123352959036658</v>
       </c>
       <c r="C64">
-        <v>0.0560319047029622</v>
+        <v>0.01213892512891947</v>
       </c>
       <c r="D64">
-        <v>-0.004364943215843377</v>
+        <v>0.0382271153385164</v>
       </c>
       <c r="E64">
-        <v>0.05265448495207058</v>
+        <v>0.01875002270923683</v>
       </c>
       <c r="F64">
-        <v>-0.04252585952148068</v>
+        <v>-0.01575973482912314</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.12179586943065</v>
+        <v>-0.1420754342769612</v>
       </c>
       <c r="C65">
-        <v>0.03861153980178239</v>
+        <v>0.03056214872789347</v>
       </c>
       <c r="D65">
-        <v>-0.03050842700752984</v>
+        <v>-0.04340326292333391</v>
       </c>
       <c r="E65">
-        <v>0.06530112729168894</v>
+        <v>0.003171052336033567</v>
       </c>
       <c r="F65">
-        <v>-0.07112122792551948</v>
+        <v>-0.0408088306212462</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.108166886413634</v>
+        <v>-0.1346667066896586</v>
       </c>
       <c r="C66">
-        <v>0.1127414483099972</v>
+        <v>0.01756646083612348</v>
       </c>
       <c r="D66">
-        <v>-0.1222874049875389</v>
+        <v>0.1293237183672143</v>
       </c>
       <c r="E66">
-        <v>0.141032642803015</v>
+        <v>0.05809467396089073</v>
       </c>
       <c r="F66">
-        <v>-0.08767170238706058</v>
+        <v>-0.04612690452094063</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.08280954007304263</v>
+        <v>-0.06601550954649105</v>
       </c>
       <c r="C67">
-        <v>0.06622621369317021</v>
+        <v>0.004391307238996646</v>
       </c>
       <c r="D67">
-        <v>0.02623665680081054</v>
+        <v>0.05589567032757204</v>
       </c>
       <c r="E67">
-        <v>0.07943293773983783</v>
+        <v>0.01950979957028496</v>
       </c>
       <c r="F67">
-        <v>0.10281677297367</v>
+        <v>0.04396254155134702</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1284257879164327</v>
+        <v>-0.110650878340481</v>
       </c>
       <c r="C68">
-        <v>-0.2728070554591062</v>
+        <v>0.02081743712136978</v>
       </c>
       <c r="D68">
-        <v>-0.02008379168943711</v>
+        <v>-0.2755338585098391</v>
       </c>
       <c r="E68">
-        <v>0.03907716850899107</v>
+        <v>-0.08503859004564204</v>
       </c>
       <c r="F68">
-        <v>-0.03090307721079434</v>
+        <v>-0.05235597956441188</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04425449058973793</v>
+        <v>-0.04075124477017941</v>
       </c>
       <c r="C69">
-        <v>0.01788042313473922</v>
+        <v>0.001136221595134511</v>
       </c>
       <c r="D69">
-        <v>0.01135643259237793</v>
+        <v>0.008507163549851824</v>
       </c>
       <c r="E69">
-        <v>0.04217491259953048</v>
+        <v>0.02608864307253599</v>
       </c>
       <c r="F69">
-        <v>0.01654245372924928</v>
+        <v>0.01748076736425252</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05457230930661586</v>
+        <v>-0.0653582452538197</v>
       </c>
       <c r="C70">
-        <v>0.05718255813804312</v>
+        <v>-0.0269526168502486</v>
       </c>
       <c r="D70">
-        <v>-0.02912603202994189</v>
+        <v>0.003462494202452482</v>
       </c>
       <c r="E70">
-        <v>0.02890560993895822</v>
+        <v>-0.04349342643222869</v>
       </c>
       <c r="F70">
-        <v>-0.04651127900683637</v>
+        <v>0.3348742926405377</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1458332550396742</v>
+        <v>-0.1294209703618756</v>
       </c>
       <c r="C71">
-        <v>-0.2791381129327278</v>
+        <v>0.02422513378699933</v>
       </c>
       <c r="D71">
-        <v>-0.01296436231815555</v>
+        <v>-0.2912655130391495</v>
       </c>
       <c r="E71">
-        <v>0.04972882018322767</v>
+        <v>-0.09264511436077175</v>
       </c>
       <c r="F71">
-        <v>-0.04219734206086635</v>
+        <v>-0.05477391898906961</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1269561092840043</v>
+        <v>-0.138328880976387</v>
       </c>
       <c r="C72">
-        <v>0.02951524775466842</v>
+        <v>0.02393301909590372</v>
       </c>
       <c r="D72">
-        <v>-0.01332817672078779</v>
+        <v>0.01111393690015396</v>
       </c>
       <c r="E72">
-        <v>0.07420113566619825</v>
+        <v>0.04220864537762799</v>
       </c>
       <c r="F72">
-        <v>-0.008267618317220636</v>
+        <v>-0.02504217676533175</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2180185688476606</v>
+        <v>-0.2102762769938832</v>
       </c>
       <c r="C73">
-        <v>0.1303283266883271</v>
+        <v>0.0117357908729614</v>
       </c>
       <c r="D73">
-        <v>-0.1325064787043011</v>
+        <v>0.02550463329718976</v>
       </c>
       <c r="E73">
-        <v>-0.09159348768730168</v>
+        <v>0.07247965302875768</v>
       </c>
       <c r="F73">
-        <v>0.4577880480886434</v>
+        <v>-0.0199451057436804</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08800164341910045</v>
+        <v>-0.09404692966624889</v>
       </c>
       <c r="C74">
-        <v>0.08757340421730472</v>
+        <v>0.01168219981053566</v>
       </c>
       <c r="D74">
-        <v>-0.006446666486407124</v>
+        <v>0.03027863540051657</v>
       </c>
       <c r="E74">
-        <v>0.07111692512212901</v>
+        <v>0.05222930623868322</v>
       </c>
       <c r="F74">
-        <v>0.06247266512174301</v>
+        <v>-0.03906817601742781</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08576466539097548</v>
+        <v>-0.1297146756213758</v>
       </c>
       <c r="C75">
-        <v>0.06212000702163045</v>
+        <v>0.02579020931112485</v>
       </c>
       <c r="D75">
-        <v>-0.004521823586111255</v>
+        <v>0.04055666902075853</v>
       </c>
       <c r="E75">
-        <v>0.01088067613023515</v>
+        <v>0.05946287418659663</v>
       </c>
       <c r="F75">
-        <v>0.01849620590482609</v>
+        <v>-0.003876066192639256</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08178337999400602</v>
+        <v>-0.009516386892286587</v>
       </c>
       <c r="C76">
-        <v>0.07889591848131228</v>
+        <v>0.002107434467201844</v>
       </c>
       <c r="D76">
-        <v>0.001870075883375837</v>
+        <v>0.004396317847678775</v>
       </c>
       <c r="E76">
-        <v>-0.007640719609217345</v>
+        <v>0.009831932292082962</v>
       </c>
       <c r="F76">
-        <v>0.06609854022492305</v>
+        <v>-0.00328605267828706</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07006290262298071</v>
+        <v>-0.08150014832955932</v>
       </c>
       <c r="C77">
-        <v>0.01604435654375266</v>
+        <v>0.0123868543095016</v>
       </c>
       <c r="D77">
-        <v>-0.04613260691551484</v>
+        <v>0.09716289727701524</v>
       </c>
       <c r="E77">
-        <v>0.04804533524670771</v>
+        <v>0.03055911508133157</v>
       </c>
       <c r="F77">
-        <v>-0.2891820908022187</v>
+        <v>-0.04340048101250396</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1905314156148873</v>
+        <v>-0.1110500703821778</v>
       </c>
       <c r="C78">
-        <v>0.1443362612663497</v>
+        <v>0.04471200896360589</v>
       </c>
       <c r="D78">
-        <v>0.1756818345798517</v>
+        <v>0.1161697101297659</v>
       </c>
       <c r="E78">
-        <v>-0.5572904387048622</v>
+        <v>0.09056287148878829</v>
       </c>
       <c r="F78">
-        <v>-0.3086988807839453</v>
+        <v>-0.07629912610356701</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1306398874928349</v>
+        <v>-0.162354618900095</v>
       </c>
       <c r="C79">
-        <v>0.07885838231160668</v>
+        <v>0.01984681655127687</v>
       </c>
       <c r="D79">
-        <v>0.006501425658117576</v>
+        <v>0.02478571408376503</v>
       </c>
       <c r="E79">
-        <v>0.03416144430246264</v>
+        <v>0.0491572920348919</v>
       </c>
       <c r="F79">
-        <v>0.02538467417160396</v>
+        <v>-0.003128673498932325</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.07071192721048127</v>
+        <v>-0.08013318538107779</v>
       </c>
       <c r="C80">
-        <v>0.03927584964399902</v>
+        <v>-0.00133323107926372</v>
       </c>
       <c r="D80">
-        <v>-0.07912265329041525</v>
+        <v>0.05203814932852883</v>
       </c>
       <c r="E80">
-        <v>0.06072104698395849</v>
+        <v>0.02778128825268453</v>
       </c>
       <c r="F80">
-        <v>0.009834603102113641</v>
+        <v>0.01055034571252209</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1197166136808256</v>
+        <v>-0.12184275010423</v>
       </c>
       <c r="C81">
-        <v>0.04796564524883314</v>
+        <v>0.02943687800253297</v>
       </c>
       <c r="D81">
-        <v>0.01168036495528096</v>
+        <v>0.03060355192118779</v>
       </c>
       <c r="E81">
-        <v>0.05148836867944884</v>
+        <v>0.05881250185099705</v>
       </c>
       <c r="F81">
-        <v>-0.01485680512715869</v>
+        <v>0.0069898419554271</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1196890186112338</v>
+        <v>-0.1622706301583375</v>
       </c>
       <c r="C82">
-        <v>0.05822698648748086</v>
+        <v>0.0202306624237383</v>
       </c>
       <c r="D82">
-        <v>-0.003500466503046151</v>
+        <v>0.02409003068741206</v>
       </c>
       <c r="E82">
-        <v>0.07512137372216758</v>
+        <v>0.03518505348679378</v>
       </c>
       <c r="F82">
-        <v>0.05000297218688914</v>
+        <v>-0.04833126729507744</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08649615277658798</v>
+        <v>-0.06646118564282716</v>
       </c>
       <c r="C83">
-        <v>0.08348787915550868</v>
+        <v>0.004476267240479769</v>
       </c>
       <c r="D83">
-        <v>-0.01457610188435611</v>
+        <v>0.04555654327477166</v>
       </c>
       <c r="E83">
-        <v>0.09522460297685799</v>
+        <v>0.003252780528976719</v>
       </c>
       <c r="F83">
-        <v>0.02288649417966208</v>
+        <v>0.0288047425362041</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.04053809249661688</v>
+        <v>-0.06069403251518551</v>
       </c>
       <c r="C84">
-        <v>-0.05330085814536342</v>
+        <v>0.01198965225065256</v>
       </c>
       <c r="D84">
-        <v>-0.03509452340347951</v>
+        <v>0.05755558842290151</v>
       </c>
       <c r="E84">
-        <v>-0.1730582171844269</v>
+        <v>-0.003912343286003025</v>
       </c>
       <c r="F84">
-        <v>-0.1383499433957683</v>
+        <v>-0.01410037273798609</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1204065578873134</v>
+        <v>-0.1374771175571077</v>
       </c>
       <c r="C85">
-        <v>0.05392471614386009</v>
+        <v>0.0251776633602277</v>
       </c>
       <c r="D85">
-        <v>-0.009745892513097237</v>
+        <v>0.022957762576696</v>
       </c>
       <c r="E85">
-        <v>0.04114237673936744</v>
+        <v>0.04120763572780498</v>
       </c>
       <c r="F85">
-        <v>0.0494980586954969</v>
+        <v>-0.03707679196372356</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08385545554427525</v>
+        <v>-0.09955658531201836</v>
       </c>
       <c r="C86">
-        <v>0.007861644743268359</v>
+        <v>-0.006479012074430702</v>
       </c>
       <c r="D86">
-        <v>0.0358654663357357</v>
+        <v>0.008181372491413862</v>
       </c>
       <c r="E86">
-        <v>-0.5435171109750239</v>
+        <v>0.1280042961294841</v>
       </c>
       <c r="F86">
-        <v>-0.06312645978303263</v>
+        <v>0.8281030368044621</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.118880471663277</v>
+        <v>-0.1025619438319943</v>
       </c>
       <c r="C87">
-        <v>0.06487324143074592</v>
+        <v>0.02598077549342871</v>
       </c>
       <c r="D87">
-        <v>0.01905504766760005</v>
+        <v>0.06797943326044044</v>
       </c>
       <c r="E87">
-        <v>0.01327093448365902</v>
+        <v>-0.05246210364462884</v>
       </c>
       <c r="F87">
-        <v>-0.09077233838771634</v>
+        <v>-0.0942124296224474</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06185676402778897</v>
+        <v>-0.06065879470326528</v>
       </c>
       <c r="C88">
-        <v>0.06036672109958969</v>
+        <v>0.003742168243301236</v>
       </c>
       <c r="D88">
-        <v>-0.03908817605586926</v>
+        <v>0.05786743172036517</v>
       </c>
       <c r="E88">
-        <v>0.02766607029505575</v>
+        <v>0.02376741337159638</v>
       </c>
       <c r="F88">
-        <v>-0.0002016974397246071</v>
+        <v>-0.007598887723978608</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2328351867208489</v>
+        <v>-0.131868945234986</v>
       </c>
       <c r="C89">
-        <v>-0.3711101248235888</v>
+        <v>0.00364605313760801</v>
       </c>
       <c r="D89">
-        <v>0.04878568797625644</v>
+        <v>-0.2790008892076243</v>
       </c>
       <c r="E89">
-        <v>-0.02801146696435897</v>
+        <v>-0.09063993061730405</v>
       </c>
       <c r="F89">
-        <v>0.0152508672449696</v>
+        <v>-0.03758933237852875</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1544543899719449</v>
+        <v>-0.1403262533860583</v>
       </c>
       <c r="C90">
-        <v>-0.2611572729337834</v>
+        <v>0.02031266920309058</v>
       </c>
       <c r="D90">
-        <v>-0.01002708348711891</v>
+        <v>-0.2770643463769976</v>
       </c>
       <c r="E90">
-        <v>0.02655568134021671</v>
+        <v>-0.1049854297388251</v>
       </c>
       <c r="F90">
-        <v>-0.006258110794434501</v>
+        <v>-0.04209306786512216</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.0736520357368898</v>
+        <v>-0.1164059004558565</v>
       </c>
       <c r="C91">
-        <v>0.0604924363313118</v>
+        <v>0.01586417456654406</v>
       </c>
       <c r="D91">
-        <v>0.007267686191107027</v>
+        <v>0.004802344669777327</v>
       </c>
       <c r="E91">
-        <v>-0.01957669260025423</v>
+        <v>0.05949612688283696</v>
       </c>
       <c r="F91">
-        <v>0.006462074687347838</v>
+        <v>0.03361213280062901</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1683747753942341</v>
+        <v>-0.1442344923372158</v>
       </c>
       <c r="C92">
-        <v>-0.2977362049297185</v>
+        <v>0.01120931964062361</v>
       </c>
       <c r="D92">
-        <v>0.02624635079994004</v>
+        <v>-0.3127814092659156</v>
       </c>
       <c r="E92">
-        <v>0.005566822174919204</v>
+        <v>-0.0990911737561205</v>
       </c>
       <c r="F92">
-        <v>-0.0366466249377305</v>
+        <v>-0.03278091040960914</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1699821746185687</v>
+        <v>-0.1457821155624777</v>
       </c>
       <c r="C93">
-        <v>-0.3059698827628796</v>
+        <v>0.0165968860343242</v>
       </c>
       <c r="D93">
-        <v>-0.04154060354551318</v>
+        <v>-0.2808351233316159</v>
       </c>
       <c r="E93">
-        <v>0.006472431853735284</v>
+        <v>-0.0695553107456397</v>
       </c>
       <c r="F93">
-        <v>-0.01289602577719039</v>
+        <v>-0.03149098720912185</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1148989474877626</v>
+        <v>-0.1331485615167908</v>
       </c>
       <c r="C94">
-        <v>0.08167914327111178</v>
+        <v>0.02339847714980706</v>
       </c>
       <c r="D94">
-        <v>0.005152377262785912</v>
+        <v>0.05265666134388233</v>
       </c>
       <c r="E94">
-        <v>0.01875763802536715</v>
+        <v>0.06160046945591718</v>
       </c>
       <c r="F94">
-        <v>0.05587809993246368</v>
+        <v>-0.02260717993338477</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1461252581627819</v>
+        <v>-0.127568153702499</v>
       </c>
       <c r="C95">
-        <v>0.05778013061532895</v>
+        <v>0.00661624928408933</v>
       </c>
       <c r="D95">
-        <v>0.01555014437230278</v>
+        <v>0.08676184225829442</v>
       </c>
       <c r="E95">
-        <v>-0.06568808773340826</v>
+        <v>0.03977267167020029</v>
       </c>
       <c r="F95">
-        <v>-0.07189331896446763</v>
+        <v>0.007544244516915829</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09425197038524985</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.9894491865119789</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01147750280584033</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>0.06085942414447981</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05044900048013616</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1167327072044486</v>
+        <v>-0.1870298749588609</v>
       </c>
       <c r="C97">
-        <v>-0.01780341743267786</v>
+        <v>-0.01318543872067667</v>
       </c>
       <c r="D97">
-        <v>0.01480050417064265</v>
+        <v>-0.006627582421737875</v>
       </c>
       <c r="E97">
-        <v>0.2979189167769401</v>
+        <v>0.0128276330578647</v>
       </c>
       <c r="F97">
-        <v>-0.05426393320019653</v>
+        <v>0.1713783564788865</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2538717782643534</v>
+        <v>-0.2076078958289707</v>
       </c>
       <c r="C98">
-        <v>0.1238390565439677</v>
+        <v>0.007391497042414662</v>
       </c>
       <c r="D98">
-        <v>0.06194644136938739</v>
+        <v>0.01657522812224257</v>
       </c>
       <c r="E98">
-        <v>-0.09785060888067733</v>
+        <v>-0.08641557187388253</v>
       </c>
       <c r="F98">
-        <v>0.2531609652073882</v>
+        <v>0.1450337921799311</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.07384266180293242</v>
+        <v>-0.05781887106362392</v>
       </c>
       <c r="C99">
-        <v>0.05671367782530651</v>
+        <v>-0.002902442024330846</v>
       </c>
       <c r="D99">
-        <v>0.01698206754772212</v>
+        <v>0.02946379083092982</v>
       </c>
       <c r="E99">
-        <v>-0.01267037028849053</v>
+        <v>0.02585775828986424</v>
       </c>
       <c r="F99">
-        <v>0.0324720209021194</v>
+        <v>-0.005220301071103346</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1231762959269959</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04746429483144424</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3227798152972123</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>-0.9073061008077499</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05907503390198196</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04301127196795065</v>
+        <v>-0.0275334005976929</v>
       </c>
       <c r="C101">
-        <v>0.02598097074070889</v>
+        <v>0.009348091016150173</v>
       </c>
       <c r="D101">
-        <v>-0.008892497366962165</v>
+        <v>0.02446436744504828</v>
       </c>
       <c r="E101">
-        <v>0.01855736636632546</v>
+        <v>0.00818983583305229</v>
       </c>
       <c r="F101">
-        <v>-0.05043744703491643</v>
+        <v>0.008360727165470726</v>
       </c>
     </row>
     <row r="102" spans="1:6">
